--- a/GeekBrains/Lesson 4. Basic operations/Commands.xlsx
+++ b/GeekBrains/Lesson 4. Basic operations/Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Git\GeekBrains\Lesson 4. Basic operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFB7EC6-B85D-41A0-AD9C-DA9148C13FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D179EE03-CF18-44C9-86D1-294CE50CC7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="2505" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>git status</t>
   </si>
@@ -49,6 +49,30 @@
   </si>
   <si>
     <t>Показывает патч файлов в индексе</t>
+  </si>
+  <si>
+    <t>git commit -a</t>
+  </si>
+  <si>
+    <t>Добавляет отслеживаемые измененные файлы в индекс и создает коммит</t>
+  </si>
+  <si>
+    <t>unlink (file.txt)</t>
+  </si>
+  <si>
+    <t>Удаление неотслеживаемого файла</t>
+  </si>
+  <si>
+    <t>git checkout -- (file.txt)</t>
+  </si>
+  <si>
+    <t>git reset HEAD (file.txt)</t>
+  </si>
+  <si>
+    <t>Удаление файла из индекса</t>
+  </si>
+  <si>
+    <t>Откат изменений отслеживаемого неиндексированного файла к последнему коммиту</t>
   </si>
 </sst>
 </file>
@@ -366,15 +390,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -409,6 +433,38 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
